--- a/Chapter 5/SA_example.xlsx
+++ b/Chapter 5/SA_example.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,11 +679,10 @@
         <v>-1.8</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="D10" s="3">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
         <v>-0.25</v>
